--- a/cowbat/validation/reports/resfinder_assembled_blastn.xlsx
+++ b/cowbat/validation/reports/resfinder_assembled_blastn.xlsx
@@ -70,7 +70,7 @@
     <t>aminoglycoside</t>
   </si>
   <si>
-    <t>Contig_2207_12.014</t>
+    <t>Contig_2205_12.0141</t>
   </si>
   <si>
     <t>7883...8674</t>
@@ -358,7 +358,7 @@
     <t>tetracycline</t>
   </si>
   <si>
-    <t>Contig_2343_11.3427</t>
+    <t>Contig_2344_11.3427</t>
   </si>
   <si>
     <t>2007...3206</t>
@@ -1003,7 +1003,7 @@
     <t>2015-SEQ-0423</t>
   </si>
   <si>
-    <t>Contig_2000_4.63142</t>
+    <t>Contig_2002_4.63142</t>
   </si>
   <si>
     <t>1...362</t>
@@ -1190,7 +1190,7 @@
 </t>
   </si>
   <si>
-    <t>Contig_40_153.026</t>
+    <t>Contig_41_153.026</t>
   </si>
   <si>
     <t>144321...145109</t>
@@ -1609,7 +1609,7 @@
     <t>beta-lactam</t>
   </si>
   <si>
-    <t>Contig_25_23.9329</t>
+    <t>Contig_24_23.9329</t>
   </si>
   <si>
     <t>997...2142</t>
@@ -1726,7 +1726,7 @@
 </t>
   </si>
   <si>
-    <t>Contig_177_36.506</t>
+    <t>Contig_176_36.506</t>
   </si>
   <si>
     <t>168156...169388</t>
@@ -2034,7 +2034,7 @@
     <t>blaADC</t>
   </si>
   <si>
-    <t>Contig_46_77.3243</t>
+    <t>Contig_45_77.3243</t>
   </si>
   <si>
     <t>204405...205556</t>
@@ -2170,7 +2170,7 @@
     <t>blaOXA</t>
   </si>
   <si>
-    <t>Contig_67_57.9768</t>
+    <t>Contig_65_57.9768</t>
   </si>
   <si>
     <t>10531...11355</t>
@@ -3538,7 +3538,7 @@
     <t>tet(35)</t>
   </si>
   <si>
-    <t>Contig_38_117.344</t>
+    <t>Contig_36_117.344</t>
   </si>
   <si>
     <t>113591...114699</t>

--- a/cowbat/validation/reports/resfinder_assembled_blastn.xlsx
+++ b/cowbat/validation/reports/resfinder_assembled_blastn.xlsx
@@ -70,7 +70,7 @@
     <t>aminoglycoside</t>
   </si>
   <si>
-    <t>Contig_2205_12.0141</t>
+    <t>Contig_2197_12.0141</t>
   </si>
   <si>
     <t>7883...8674</t>
@@ -358,7 +358,7 @@
     <t>tetracycline</t>
   </si>
   <si>
-    <t>Contig_2344_11.3427</t>
+    <t>Contig_2334_11.3427</t>
   </si>
   <si>
     <t>2007...3206</t>
@@ -1003,7 +1003,7 @@
     <t>2015-SEQ-0423</t>
   </si>
   <si>
-    <t>Contig_2002_4.63142</t>
+    <t>Contig_2004_4.63142</t>
   </si>
   <si>
     <t>1...362</t>
@@ -1726,7 +1726,7 @@
 </t>
   </si>
   <si>
-    <t>Contig_176_36.506</t>
+    <t>Contig_172_36.506</t>
   </si>
   <si>
     <t>168156...169388</t>
@@ -1856,7 +1856,7 @@
     <t>98</t>
   </si>
   <si>
-    <t>Contig_189_39.2872</t>
+    <t>Contig_184_39.2872</t>
   </si>
   <si>
     <t>62599...63692</t>
@@ -2034,7 +2034,7 @@
     <t>blaADC</t>
   </si>
   <si>
-    <t>Contig_45_77.3243</t>
+    <t>Contig_47_77.3243</t>
   </si>
   <si>
     <t>204405...205556</t>
@@ -2170,7 +2170,7 @@
     <t>blaOXA</t>
   </si>
   <si>
-    <t>Contig_65_57.9768</t>
+    <t>Contig_68_57.9768</t>
   </si>
   <si>
     <t>10531...11355</t>
@@ -3538,7 +3538,7 @@
     <t>tet(35)</t>
   </si>
   <si>
-    <t>Contig_36_117.344</t>
+    <t>Contig_38_117.344</t>
   </si>
   <si>
     <t>113591...114699</t>
@@ -4027,7 +4027,7 @@
     <t>2019-SEQ-0183</t>
   </si>
   <si>
-    <t>Contig_178_57.0182</t>
+    <t>Contig_176_57.0182</t>
   </si>
   <si>
     <t>17491...17892</t>

--- a/cowbat/validation/reports/resfinder_assembled_blastn.xlsx
+++ b/cowbat/validation/reports/resfinder_assembled_blastn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="321">
   <si>
     <t>Strain</t>
   </si>
@@ -70,7 +70,7 @@
     <t>aminoglycoside</t>
   </si>
   <si>
-    <t>Contig_2197_12.0141</t>
+    <t>Contig_2215_12.0141</t>
   </si>
   <si>
     <t>7883...8674</t>
@@ -358,7 +358,7 @@
     <t>tetracycline</t>
   </si>
   <si>
-    <t>Contig_2334_11.3427</t>
+    <t>Contig_2354_11.3427</t>
   </si>
   <si>
     <t>2007...3206</t>
@@ -1003,7 +1003,7 @@
     <t>2015-SEQ-0423</t>
   </si>
   <si>
-    <t>Contig_2004_4.63142</t>
+    <t>Contig_2008_4.63142</t>
   </si>
   <si>
     <t>1...362</t>
@@ -1190,7 +1190,7 @@
 </t>
   </si>
   <si>
-    <t>Contig_41_153.026</t>
+    <t>Contig_40_153.026</t>
   </si>
   <si>
     <t>144321...145109</t>
@@ -1609,7 +1609,7 @@
     <t>beta-lactam</t>
   </si>
   <si>
-    <t>Contig_24_23.9329</t>
+    <t>Contig_25_23.9329</t>
   </si>
   <si>
     <t>997...2142</t>
@@ -1726,7 +1726,7 @@
 </t>
   </si>
   <si>
-    <t>Contig_172_36.506</t>
+    <t>Contig_177_36.506</t>
   </si>
   <si>
     <t>168156...169388</t>
@@ -1853,188 +1853,13 @@
     <t>27;176</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Contig_184_39.2872</t>
-  </si>
-  <si>
-    <t>62599...63692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;2017-HCLON-0380_blaCMY_98_1_KC603538
-CTGCGCCTTATTAATTACCGCCTCTTGCTCCACATTTGCTGCCCCTCAA-CAAATCAAC-
--------GATATTGTGCATCGCACAATTACCCCGCTTATAGAGCAACAAAAG---ATCCC
-GGGTATGGCGGTGGCGGTAATTTATCAGGGTAAACCTTATTACTTTACCTGGGGCTATGC
-GGACATCGCCAAAAAGCAGCCCGTCACACAGCAAACGTTGTTTGAGTTAGGTTCGGTCAG
-CAAAACATTTACTGGCGTGCTTGGTGGCGACGCTATTGCTCGAGGGGAAATCAAGTTAAG
-CGATCCCACAACAAAATACTGGCCTGAACTTACCGCTAAACAGTGGAATGGGATCACACT
-ATTACATCTCGCAACCTACACTGCTGGCGGCCTGCCATTGCAGGTGCCGGATGAGGTGAA
-ATCCTCAAGCGAC-TTGCTGCGCTTCTATCAAAACTGGCAGCCTGCATGGGCTCCAGGAA
-CACAACGTCTGTATGCCAACTCCAGTATCGGTTTGTTCGGCGCACTGGCTGTGAAGCCGT
-CTGGTTTGAGTTTTGAGCAGGCGATG--CAAACTCGTGTCTTCCAGCCACTCAAACTCAA
-CCATACGTGGATTAATGTACCGCCCGCAGAAGAAAAGAATTACGCCTGGGGATATCGCGA
-AGGTAAGGCAGTGCATGTTTCGCCTGGGGCGTTAGATGCTGAAGCTTATGGTGTGAAGTC
-GACCATTGAAGATATGGCCCGCTGGGTGCAAAGCAATTTAAAACCCCTTGATATCAATGA
-GAAAACGCTTCAACAAGGGATACAACTGGCACAATCTCGCTACTGGCAAACCGGCGATAT
-GTATCAGGGCCTGGGCTGGGAAATGCTGGACTGGCCGGTAAATCCTGACAGCATCATTAA
-CGGCAGTGACAATAAAATTGCACTGGCAGCACGCCCCGTAAAAGCGATTACGCCCCCAAC
-TCCTGCAGTACGCGCATCATGGGTACATAAAACAGGGGCGACCGGCGGATTTGGTAGCTA
-TGTCGCGTTTATTCCAGAAAAAGAGCTGGGTATCGTGATGCTGGCAAACAAAAACTATCC
-CAATCCAGCGAGAGTCGACGCCGCCTGGC
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000 OLC ENASTRDTTGTISLLANRRYVSGPGLGNAGLAGKS*QHH*RQ*Q*NCTGSTPRKSDYAPN
-         ||| |       ||||  ||| |  || | |||       |  ||  |    |       
-     ref ENAPTGN*NCAGSLLAYWRYVPGIRLGDAELAGECRLDNQR*RQ*SRTSGASRR*GQSAR
-0060 OLC SCSTRIMGT*NRGDRRIW*LCRVYSRKRAGYRDAGKQKLSQSSESRRRL
-          ||   ||  ||   ||| |  | | |    ||||||||      | ||
-     ref PCSESLMGAQNRLHWRIWQLRCVRSGKKSRHRDAGKQKLPKPCSRRGRL
-</t>
-  </si>
-  <si>
-    <t>4;6;7;8;9;10;11;12;17;18;22
-24;25;28;30;34;35;36;37
-38;39;40;42;43;46;47;49
-50;51;52;54;55;56;57;58
-59;60;61;64;65;66;69;70
-73;74;75;79;81;82;84;86
-88;89;90;91;100;101;102
-103;104;105;107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000 OLC CTGCGCCTTATTAATTACCGCCTCTTGCTCCACATTTGCTGCCCCTCAA-CAAATCAAC-
-         |||||| ||  |  | || ||||||| ||| || ||||| ||| |  || || | |||| 
-     ref CTGCGCGTTGCTGCTGACAGCCTCTTTCTCTACGTTTGCCGCCGCAAAAACAGAACAACA
-0060 OLC -------GATATTGTGCATCGCACAATTACCCCGCTTATAGAGCAACAAAAG---ATCCC
-                ||||| ||  | || || || || ||||| ||   |||| || ||   || ||
-     ref GATTGCCGATATCGTAAACCGTACCATCACACCGCTGAT---GCAAGAACAGGCTATTCC
-0120 OLC GGGTATGGCGGTGGCGGTAATTTATCAGGGTAAACCTTATTACTTTACCTGGGGCTATGC
-         ||||||||| || ||  | || || ||||| ||||| |||||||||||||||||  | ||
-     ref GGGTATGGCCGTAGCAATTATCTACCAGGGAAAACCCTATTACTTTACCTGGGGGAAAGC
-0180 OLC GGACATCGCCAAAAAGCAGCCCGTCACACAGCAAACGTTGTTTGAGTTAGGTTCGGTCAG
-          || ||||||||  | |  |||||||| | ||||||| |||||||| | || ||||| ||
-     ref CGATATCGCCAATGACCGCCCCGTCACCCGGCAAACGCTGTTTGAGCTTGGATCGGTAAG
-0240 OLC CAAAACATTTACTGGCGTGCTTGGTGGCGACGCTATTGCTCGAGGGGAAATCAAGTTAAG
-          || || ||||  || ||||| || ||||| ||||| || || || ||||| ||| | ||
-     ref TAAGACGTTTAACGGTGTGCTGGGCGGCGATGCTATCGCCCGTGGTGAAATTAAGCTCAG
-0300 OLC CGATCCCACAACAAAATACTGGCCTGAACTTACCGCTAAACAGTGGAATGGGATCACACT
-         ||||||    ||  |||||||||| ||| | || |  ||||| ||| | || ||||  ||
-     ref CGATCCGGTCACCCAATACTGGCCCGAATTAACTGGCAAACAATGGCAGGGTATCAGCCT
-0360 OLC ATTACATCTCGCAACCTACACTGCTGGCGGCCTGCCATTGCAGGTGCCGGATGAGGTGAA
-           | || || || ||||| || || || || |||||  | ||||| || || || || | 
-     ref GCTGCACCTGGCCACCTATACGGCGGGTGGTCTGCCGCTTCAGGTACCTGACGACGTTAC
-0420 OLC ATCCTCAAGCGAC-TTGCTGCGCTTCTATCAAAACTGGCAGCCTGCATGGGCTCCAGGAA
-         |   | ||||| | || |||||||| |||||||||||||||||   |||||| || ||  
-     ref A-GATAAAGCGGCATTACTGCGCTTTTATCAAAACTGGCAGCCGCAATGGGCCCCGGGTG
-0480 OLC CACAACGTCTGTATGCCAACTCCAGTATCGGTTTGTTCGGCGCACTGGCTGTGAAGCCGT
-         |  |||| |||||||| ||||||||||| ||| |||| ||||||||||| ||||| || |
-     ref CTAAACGCCTGTATGCTAACTCCAGTATTGGTCTGTTTGGCGCACTGGCGGTGAAACCTT
-0540 OLC CTGGTTTGAGTTTTGAGCAGGCGATG--CAAACTCGTGTCTTCCAGCCACTCAAACTCAA
-         | ||  || | | |||  ||||||||  ||||  || ||| | || ||| | |||||   
-     ref CAGGAATGGGCTATGAAGAGGCGATGACCAAA--CGCGTCCTGCAACCATTAAAACTGGC
-0600 OLC CCATACGTGGATTAATGTACCGCCCGCAGAAGAAAAGAATTACGCCTGGGGATATCGCGA
-          ||||| |||||||  || || |     ||| ||||| |||| |||||||| ||||||||
-     ref GCATACCTGGATTACGGTTCCACAGAGCGAACAAAAGGATTATGCCTGGGGTTATCGCGA
-0660 OLC AGGTAAGGCAGTGCATGTTTCGCCTGGGGCGTTAGATGCTGAAGCTTATGGTGTGAAGTC
-         ||| ||| | || || || || || ||   | | ||||| ||||| || || ||||| ||
-     ref AGGGAAGCCCGTACACGTATCTCCGGGCCAGCTTGATGCCGAAGCCTACGGGGTGAAATC
-0720 OLC GACCATTGAAGATATGGCCCGCTGGGTGCAAAGCAATTTAAAACCCCTTGATATCAATGA
-          | | |||  |||||| | || ||| | ||   |||  |  |  ||    |  |  | ||
-     ref CAGCCTTGTCGATATGACTCGTTGGATTCAGGCCAACATGGACGCCAGCCAGGTGCAGGA
-0780 OLC GAAAACGCTTCAACAAGGGATACAACTGGCACAATCTCGCTACTGGCAAACCGGCGATAT
-         ||||||||| | ||| || ||  || | || ||  |||| |||||||| |  ||||||||
-     ref GAAAACGCTCCGACAGGGAATTGAAATTGCGCAGGCTCGTTACTGGCATATTGGCGATAT
-0840 OLC GTATCAGGGCCTGGGCTGGGAAATGCTGGACTGGCCGGTAAATCCTGACAGCATCATTAA
-         ||| |||||  | || ||||| |||||| |||||||||| ||| | |||   || || ||
-     ref GTACCAGGGATTAGGTTGGGAGATGCTGAACTGGCCGGTGAATGCCGACTCGATAATCAA
-0900 OLC CGGCAGTGACAATAAAATTGCACTGGCAGCACGCCCCGTAAAAGCGATTACGCCCCCAAC
-         ||| || |||| |||| | ||||| || || |  ||||     | | | |  || ||  |
-     ref CGGTAGCGACAGTAAAGTCGCACTAGCGGCGCTTCCCGCCGTTGAGGTCAATCCGCCCGC
-0960 OLC TCCTGCAGTACGCGCATCATGGGTACATAAAACAGGGGCGACCGGCGGATTTGGTAGCTA
-          ||||||||    || |||||||| || ||||| ||  | || ||||||||||| |||||
-     ref CCCTGCAGTGAAAGCCTCATGGGTGCACAAAACCGGCTCCACTGGCGGATTTGGCAGCTA
-1020 OLC TGTCGCGTTTATTCCAGAAAAAGAGCTGGGTATCGTGATGCTGGCAAACAAAAACTATCC
-          || |||||  |||| |||||| | || || |||||||||||||||||||||| ||| ||
-     ref CGTTGCGTTCGTTCCGGAAAAAAATCTCGGCATCGTGATGCTGGCAAACAAAAGCTACCC
-1080 OLC CAATCCAGCGAGAGTCGACGCCGCCTGGC
-          || || ||  | ||||| ||||||||||
-     ref AAACCCTGCTCGCGTCGAGGCCGCCTGGC
-</t>
-  </si>
-  <si>
-    <t>7;10;11;13;14;16;19;27;31
-34;40;44;46;47;50;53;55
-60;61;62;63;64;65;66;67
-73;76;77;79;82;85;88;91
-97;100;101;102;107;110
-113;114;115;118;130
-133;136;137;139;142
-145;151;157;175;176
-178;181;184;193;194
-196;198;199;208;210
-218;227;229;232;238
-241;244;247;252;253
-256;262;265;271;277
-280;283;286;292;296
-298;307;308;309;310
-313;314;325;329;331
-334;336;337;343;347
-349;352;357;358;361
-362;364;367;370;373
-379;382;385;388;391
-397;398;400;406;409
-412;415;418;420;422
-423;424;426;432;434
-437;446;464;465;466
-473;476;479;480;482
-483;488;497;509;513
-518;530;536;539;542
-545;546;549;551;553
-557;558;567;568;573
-574;577;581;583;586
-590;592;598;599;600
-601;607;615;616;619
-622;624;625;626;627
-628;632;638;643;652
-664;668;670;673;676
-679;682;685;688;689
-690;692;694;700;706
-709;712;718;721;723
-725;729;730;737;739
-742;746;748;751;752
-753;757;758;760;761
-763;764;767;768;769
-770;772;773;775;776
-778;790;792;796;799
-802;803;806;808;811
-814;815;820;829;831
-832;844;850;851;853
-856;862;869;880;884
-886;890;891;892;895
-898;904;907;912;917
-919;925;928;931;933
-934;939;940;941;942
-943;945;947;949;951
-952;955;958;959;961
-970;971;972;973;976
-985;988;994;997;998
-1000;1003;1015;1021
-1024;1030;1031;1036
-1043;1045;1048;1051
-1074;1078;1081;1084
-1087;1090;1091;1093
-1099</t>
-  </si>
-  <si>
     <t>2017-SEQ-0905</t>
   </si>
   <si>
     <t>blaADC</t>
   </si>
   <si>
-    <t>Contig_47_77.3243</t>
+    <t>Contig_45_77.3243</t>
   </si>
   <si>
     <t>204405...205556</t>
@@ -2170,7 +1995,7 @@
     <t>blaOXA</t>
   </si>
   <si>
-    <t>Contig_68_57.9768</t>
+    <t>Contig_65_57.9768</t>
   </si>
   <si>
     <t>10531...11355</t>
@@ -2317,9 +2142,6 @@
   </si>
   <si>
     <t>19;43;124;136;141</t>
-  </si>
-  <si>
-    <t>2018-STH-0076</t>
   </si>
   <si>
     <t>2016-SEQ-1221</t>
@@ -3860,99 +3682,105 @@
 393;408</t>
   </si>
   <si>
-    <t>dfrK</t>
+    <t>dfrG</t>
   </si>
   <si>
     <t>Contig_146_41.861</t>
   </si>
   <si>
-    <t>3675...4151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;2018-STH-0255_dfrK_3_FN812951
+    <t>3675...4160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2018-STH-0255_dfrG_1_AB205645
 ATGATAGTTTCATTTATGGTCGCAATGGACGAGAATAGAGTAATTGGTAAAGATAATAAT
 TTACCTTGGCGTTTACCGAGTGAATTACAATATGTAAAGAAAACAACGATGGGTCATCCG
 CTTATTATGGGAAGAAAGAACTATGAAGCGATTGGTAGACCACTGCCTGGAAGACGTAAT
-ATTATTGTAACTCGCAATGAAGGGTATCATGTTGAA-GGATGTGAAGTAGCACATTCTGT
-AGAAGAAGTGTTTGAGCTATGCAAAAATGAAGAAGAGATCTTTATTTTTGGCGGAGCACA
-AATTTATGATCTCTTTTTACCTTACGTAGACAAGTTATATATAACAAAAATCCATCATGC
-ATTTGAAGGAGATACATTCTTCCCAGAAATGGA-TATGACAAATTGGAAAGAAGTTTTTG
-TTGAAAAAGGTTTAACGGATGAAAAAAATCCGTATACGTACTATTATCATGTATATGAG
+ATTATTGTAACTCGCAATGAAGGGTATCATGTTGAAGGATGTGAAGTAGCACATTCTGTA
+GAAGAAGTGTTTGAGCTATGCAAAAATGAAGAAGAGATCTTTATTTTTGGCGGAGCACAA
+ATTTATGATCTCTTTTTACCTTACGTAGACAAGTTATATATAACAAAAATCCATCATGCA
+TTTGAAGGAGATACATTCTTCCCAGAAATGGA-TATGACAAATTGGAAAGAAGTTTTTGT
+TGAAAAAGGTTTAACGGATGAAAAAAATCCGTATACGTACTATTATCATGTATATGAGAA
+GCAACAA
 </t>
   </si>
   <si>
     <t xml:space="preserve">0000 OLC MIVSFMVAMDENRVIGKDNNLPWRLPSELQYVKKTTMGHPLIMGRKNYEAIGRPLPGRRN
-         | ||   ||| ||| || |  ||| |    ||| || | | | |||| | ||| ||||||
-     ref MKVSLIAAMDKNRVLGKENDIPWRIPKDWEYVKNTTKGYPIILGRKNLESIGRALPGRRN
+         | ||   ||| |||||| |  ||| |    ||| || ||| | |||| | ||| || |||
+     ref MKVSLIAAMDKNRVIGKENDIPWRIPKDWEYVKNTTKGHPIILGRKNLESIGRALPDRRN
 0060 OLC IIVTRNEGYHVEGCEVAHSVEEVFELCKNEEEIFIFGGAQIYDLFLPYVDKLYITKIHHA
-         || ||  |    |||  || | ||| | |||||||||| ||| |||||| | ||||||  
-     ref IILTRDKGFSFNGCEIVHSIEDVFEICNNEEEIFIFGGEQIYNLFLPYVEKMYITKIHYE
-0120 OLC FEGDTFFPEMDMTNWKEVFVEKGLTDEKNPYTYYYHVYE
-         |||||||||     | || |  | |||||||||| | ||
-     ref FEGDTFFPEVNYEEWSEVSVTQGITDEKNPYTYYFHIYE
-</t>
-  </si>
-  <si>
-    <t>2;5;6;7;11;15;18;20;21;25
-27;28;29;30;34;37;39;41
-43;48;50;54;63;66;67;69
-70;71;72;76;77;80;82;86
-88;99;103;110;112;119
-120;130;131;132;133
-134;136;139;141;142
-144;155;157</t>
+         || ||  |    |||  || | |||||||||||||||| ||| || ||| | ||||||| 
+     ref IILTRDKGFTFNGCEIVHSIEDVFELCKNEEEIFIFGGEQIYNLFFPYVEKMYITKIHHE
+0120 OLC FEGDTFFPEMDMTNWKEVFVEKGLTDEKNPYTYYYHVYEKQ
+         |||||||||     | |||  ||    |||| || ||||  
+     ref FEGDTFFPEVNYEEWNEVFAQKGIKNDKNPYNYYFHVYERK
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2;5;6;7;11;18;20;21;25;27
+28;29;30;34;37;41;43;48
+50;54;57;63;66;67;69;70
+71;72;76;77;80;82;99;103
+106;110;112;120;130
+131;132;133;134;136
+140;141;144;145;146
+147;152;155;160;161
+</t>
   </si>
   <si>
     <t xml:space="preserve">0000 OLC ATGATAGTTTCATTTATGGTCGCAATGGACGAGAATAGAGTAATTGGTAAAGATAATAAT
-         |||| |||||| || || |  || |||||  ||||||| ||| | |||||||| ||| | 
-     ref ATGAAAGTTTCTTTAATTGCTGCGATGGATAAGAATAGGGTATTAGGTAAAGAGAATGAC
+         |||| |||||| || || |  || |||||  |||||||||| ||||| ||||| ||| | 
+     ref ATGAAAGTTTCTTTGATTGCTGCGATGGATAAGAATAGAGTGATTGGCAAAGAGAATGAC
 0060 OLC TTACCTTGGCGTTTACCGAGTGAATTACAATATGTAAAGAAAACAACGATGGGTCATCCG
-          |||||||| |  | || |  || |   | ||||| || || || || | |||  |||| 
-     ref ATACCTTGGAGAATCCCAAAGGATTGGGAGTATGTTAAAAATACTACAAAGGGATATCCA
+          | |||||| |  | || |  || |   ||||||| || || || || | ||| ||||||
+     ref ATTCCTTGGAGGATTCCCAAGGACTGGGAATATGTTAAAAATACTACAAAGGGACATCCG
 0120 OLC CTTATTATGGGAAGAAAGAACTATGAAGCGATTGGTAGACCACTGCCTGGAAGACGTAAT
-          ||||  | ||||| |||||   |||| | || || ||| || | ||||||||| | |||
-     ref ATTATATTAGGAAGGAAGAATCTTGAATCAATCGGAAGAGCATTACCTGGAAGAAGAAAT
-0180 OLC ATTATTGTAACTCGCAATGAAGGGTATCATGTTGAA-GGATGTGAAGTAGCACATTCTGT
-         |||||| | ||  |  || |||||| |||  || || || |||||| | |  |||||  |
-     ref ATTATTCTGACAAGAGAT-AAGGGTTTCAGCTTTAATGGTTGTGAAATTGTCCATTCAAT
-0240 OLC AGAAGAAGTGTTTGAGCTATGCAAAAATGAAGAAGAGATCTTTATTTTTGGCGGAGCACA
-         |||||| || |||||| |||| || || ||||| || || || ||||| || |||| |||
-     ref AGAAGATGTTTTTGAGATATGTAATAACGAAGAGGAAATTTTCATTTTCGGGGGAGAACA
-0300 OLC AATTTATGATCTCTTTTTACCTTACGTAGACAAGTTATATATAACAAAAATCCATCATGC
-         ||||||| || | ||| |||| || || || ||  | || || |||||||| ||| | | 
-     ref AATTTATAATTTGTTTCTACCATATGTTGAGAAAATGTACATTACAAAAATTCATTACGA
-0360 OLC ATTTGAAGGAGATACATTCTTCCCAGAAATGGA-TATGACAAATTGGAAAGAAGTTTTTG
-         ||||||||||||||||||||| |||||| || | ||||| | | ||||  ||||| | ||
-     ref ATTTGAAGGAGATACATTCTTTCCAGAAGTGAATTATGA-AGAGTGGAGCGAAGTATCTG
-0420 OLC TTGAAAAAGGTTTAACGGATGAAAAAAATCCGTATACGTACTATTATCATGTATATGAG
-         ||  | ||||  |||| |||||||||||||| ||||| ||||||| |||| | ||||||
-     ref TTACACAAGGAATAACAGATGAAAAAAATCCTTATACATACTATTTTCATATTTATGAG
+          | ||  | || || ||||||  |||| | || || ||| |  | ||||  ||| | |||
+     ref ATAATATTAGGTAGGAAGAACCTTGAATCAATCGGAAGAGCCTTACCTGACAGAAGAAAT
+0180 OLC ATTATTGTAACTCGCAATGAAGGGTATCATGTTGAAGGATGTGAAGTAGCACATTCTGTA
+         |||||| | ||  |  || | |||| |    || | || |||||| | |  |||||  ||
+     ref ATTATTCTGACGAGAGATAAGGGGTTTACCTTTAATGGTTGTGAAATTGTTCATTCAATA
+0240 OLC GAAGAAGTGTTTGAGCTATGCAAAAATGAAGAAGAGATCTTTATTTTTGGCGGAGCACAA
+         ||||| || |||||| |||| ||||| |||||||| || |||||||| || |||| ||| 
+     ref GAAGATGTTTTTGAGTTATGTAAAAACGAAGAAGAAATTTTTATTTTCGGAGGAGAACAG
+0300 OLC ATTTATGATCTCTTTTTACCTTACGTAGACAAGTTATATATAACAAAAATCCATCATGCA
+         |||||| || | ||||| ||||| || || ||  | || || |||||||| ||||||| |
+     ref ATTTATAATTTGTTTTTCCCTTATGTTGAGAAAATGTACATCACAAAAATACATCATGAA
+0360 OLC TTTGAAGGAGATACATTCTTCCCAGAAATGGA-TATGACAAATTGGAAAGAAGTTTTTGT
+         || ||||||||||| || || |||||| || | |||||  || ||||| || || |||| 
+     ref TTCGAAGGAGATACTTTTTTTCCAGAAGTGAATTATGAGGAA-TGGAATGAGGTATTTGC
+0420 OLC TGAAAAAGGTTTAACGGATGAAAAAAATCCGTATACGTACTATTATCATGTATATGAGAA
+           |||||||  ||| | |||| |||||||||||||  ||||||| |||||||||||| ||
+     ref CCAAAAAGGGATAAAGAATGATAAAAATCCGTATAACTACTATTTTCATGTATATGA-AA
+0480 OLC GCAACAA
+         | || ||
+     ref GAAAAAA
 </t>
   </si>
   <si>
     <t>5;12;15;18;20;21;24;30
-31;39;43;45;54;58;60;61
+31;42;48;54;58;60;61;63
 70;72;73;75;78;80;81;84
-86;87;88;90;96;99;102
-105;108;110;114;115
-120;121;126;127;129
-135;141;142;143;148
-150;153;156;160;163
-165;175;177;187;189
-192;193;195;196;199
-206;210;211;214;217
-220;227;229;231;232
-238;239;247;250;257
-262;265;268;274;277
-280;283;289;292;297
-308;311;313;317;322
-325;328;331;334;335
-337;340;343;352;356
-358;360;382;389;392
-394;400;402;404;409
-410;416;418;423;424
-426;431;432;437;452
-458;466;471;473</t>
+86;87;88;96;99;102;105
+108;110;114;121;123
+126;127;129;132;135
+142;143;148;150;153
+156;160;162;163;165
+170;171;175;177;187
+189;192;193;195;196
+199;201;206;208;209
+210;211;214;216;219
+226;228;230;231;237
+238;246;249;256;261
+267;276;279;288;291
+296;300;307;310;312
+318;324;327;330;333
+334;336;339;342;351
+359;363;375;378;381
+388;391;393;399;400
+403;409;412;415;420
+421;422;430;431;435
+437;442;456;457;465
+478;482;485</t>
   </si>
   <si>
     <t>fosB2</t>
@@ -4027,7 +3855,7 @@
     <t>2019-SEQ-0183</t>
   </si>
   <si>
-    <t>Contig_176_57.0182</t>
+    <t>Contig_178_57.0182</t>
   </si>
   <si>
     <t>17491...17892</t>
@@ -4092,6 +3920,666 @@
 249;250;256;289;292
 294;295;331;333;337
 344;346;347</t>
+  </si>
+  <si>
+    <t>NC_003198_NC_003197_0_1_50_HS25</t>
+  </si>
+  <si>
+    <t>Contig_30_42.1469</t>
+  </si>
+  <si>
+    <t>29906...30343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;NC_003198_NC_003197_0_1_50_HS25_aac(6')_Iaa_1_NC_003197
+TCGACAACGCTTTCGGTAGAAAATGACGCGCTCTGTTTCCTCAAATCCTAACGCCAGGTG
+AACTTTCTGTGAAATTGTATTTTCCGGCGAGGTATCGGAAGCCATTTCCCGACACCCTTT
+ATTCGTTCCCCATCGTTGCACTGCTGCTATCAATTGTTTCGCTAAGCCGCGTTGACGGAA
+CGAGGGGAGAACAAAAATACCTTCAAGGAAAACCACGGGCGAACTGTCACAGCCATTGAC
+ATAATCGTGGCGGATTGAGGCATCCGCAAAGCCAATCGCCACCCCGTCTGCCATCGCAAT
+AAATGATGCCAGATGTTCGGCTTGCAGAATTTCTTCGCCGTCCGCCAGATGGGCGTCATC
+CGGGTGACCAGGCCAGAGCTGTTTTCGCAATCCGCGCCAGTGCTCCAGATGGGTTTTGTT
+CATTTGCCTGATGTCCAT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC STTLSVENDALCFLKS*RQVNFL*NCIFRRGIGSHFPTPFIRSPSLHCCYQLFR*AALTE
+         ||||||||||||||||||  ||| ||||||||| ||||||||||||| | |||| |||||
+     ref STTLSVENDALCFLKS*RLMNFLGNCIFRRGIGGHFPTPFIRSPSLHRCNQLFRYAALTE
+0060 OLC RGENKNTFKENHGRTVTAIDIIVAD*GIRKANRHPVCHRNK*CQMFGLQNFFAVRQMGVI
+          |||||||||||||||||||||||||||||||||||||||||||| ||||||||||||||
+     ref *GENKNTFKENHGRTVTAIDIIVAD*GIRKANRHPVCHRNK*CQMIGLQNFFAVRQMGVI
+0120 OLC RVTRPELFSQSAPVLQMGFVHLPDVH
+         |||||||||||||| ||| |||||||
+     ref RVTRPELFSQSAPVIQMGSVHLPDVH
+</t>
+  </si>
+  <si>
+    <t>19;20;24;34;48;50;55;61
+106;135;139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC TCGACAACGCTTTCGGTAGAAAATGACGCGCTCTGTTTCCTCAAATCCTAACGCCAGGTG
+         || |||||||||||||||||||||||||||||||||||||||||||||||||||| | ||
+     ref TCAACAACGCTTTCGGTAGAAAATGACGCGCTCTGTTTCCTCAAATCCTAACGCCTGATG
+0060 OLC AACTTTCTGTGAAATTGTATTTTCCGGCGAGGTATCGGAAGCCATTTCCCGACACCCTTT
+         ||||||||| ||||||||||||||||||||||||||||| ||||||||||||||||||||
+     ref AACTTTCTGGGAAATTGTATTTTCCGGCGAGGTATCGGAGGCCATTTCCCGACACCCTTT
+0120 OLC ATTCGTTCCCCATCGTTGCACTGCTGCTATCAATTGTTTCGCTAAGCCGCGTTGACGGAA
+         ||||||||||||||||||||| ||||| |||||||||||||||| |||||||||||||||
+     ref ATTCGTTCCCCATCGTTGCACCGCTGCAATCAATTGTTTCGCTACGCCGCGTTGACGGAA
+0180 OLC CGAGGGGAGAACAAAAATACCTTCAAGGAAAACCACGGGCGAACTGTCACAGCCATTGAC
+          |||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref TGAGGGGAGAACAAAAATACCTTCAAGGAAAACCACGGGCGAACTGTCACAGCCATTGAC
+0240 OLC ATAATCGTGGCGGATTGAGGCATCCGCAAAGCCAATCGCCACCCCGTCTGCCATCGCAAT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref ATAATCGTGGCGGATTGAGGCATCCGCAAAGCCAATCGCCACCCCGTCTGCCATCGCAAT
+0300 OLC AAATGATGCCAGATGTTCGGCTTGCAGAATTTCTTCGCCGTCCGCCAGATGGGCGTCATC
+         ||||||||||||||| ||||||||||||||||||||||||||||||||||||||||||||
+     ref AAATGATGCCAGATGATCGGCTTGCAGAATTTCTTCGCCGTCCGCCAGATGGGCGTCATC
+0360 OLC CGGGTGACCAGGCCAGAGCTGTTTTCGCAATCCGCGCCAGTGCTCCAGATGGGTTTTGTT
+         |||||||||||||||||||||||||||||||||||||||||| |||||||||||| ||||
+     ref CGGGTGACCAGGCCAGAGCTGTTTTCGCAATCCGCGCCAGTGATCCAGATGGGTTCTGTT
+0420 OLC CATTTGCCTGATGTCCAT
+         ||||||||||||||||||
+     ref CATTTGCCTGATGTCCAT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;56;58;70;100;142;148
+165;181;316;403;416
+</t>
+  </si>
+  <si>
+    <t>Contig_39_43.0443</t>
+  </si>
+  <si>
+    <t>28299...29517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;NC_003198_NC_003197_0_1_50_HS25_mdf(A)_1_Y08743
+ATGCAGAATCGTTTACAATCAGGCGGCAGGCTGGGACGTCAGGCGCTGCTTTTTCCTCTC
+TGTCTGGTGCTGTACGAGTTTTCTACTTATATTGGCAACGACATGATCCAACCGGGTATG
+CTGGCGGTGGTTGAGCAGTATCAGGCGGGCCTGGACTGGGTTCCGACGTCCATGACCGCT
+TATCTGGCGGGCGGTATGTTCTTACAATGGCTGCTTGGCCCGTTGTCTGACCGGATTGGC
+CGTCGTCCCGTGATGCTGGCGGGCGTCGTGTGGTTTATTGTCACCTGCCTGGCGACGTTA
+CTGGCGAAAAACATCGAACAATTTACATTCCTGCGTTTTTTGCAAGGGATTAGCCTGTGT
+TTTATCGGCGCTGTAGGGTATGCCGCGATTCAGGAATCCTTTGAGGAGGCGGTGTGTATA
+AAAATTACCGCGCTGATGGCGAACGTGGCGTTAATCGCGCCGCTACTGGGACCACTAGTT
+GGGGCGGCATGGGTGCATGTTCTGCCGTGGGAGGGGATGTTTATTTTATTTGCCGCACTG
+GCCGCTATCGCCTTTTTCGGGCTACAGCGCGCAATGCCGGAGACCGCCACGCGGCGGGGC
+GAAACGCTGTCATTTAAGGCGCTTGGCCGGGATTATCGGCTGGTGATAAAAAATCGGCGG
+TTCGTCGCAGGGGCGTTAGCGCTGGGATTTGTCAGCCTGCCGCTGTTGGCCTGGATTGCG
+CAGTCGCCGATTATCATCATTAGCGGCGAACAGCTCAGCAGCTATGAATATGGTTTGCTG
+CAGGTGCCCGTTTTTGGCGCGCTCATTGCCGGTAATCTGGTGTTGGCGCGTTTAACCTCC
+CGACGTACGGTTCGCTCGCTGATCGTGATGGGCGGCTGGCCTATCGTCGCGGGGCTGATC
+ATCGCCGCGGCGGCGACGGTGGTTTCATCCCATGCTTATTTATGGATGACGGCGGGATTA
+AGCGTATACGCTTTTGGCATTGGGCTGGCGAATGCCGGACTGGTGCGTCTGACGCTCTTT
+TCCAGCGATATGAGTAAAGGAACGGTCTCGGCGGCGATGGGAATGCTACAAATGCTGATT
+TTTACCGTTGGCATTGAAGTCAGTAAACACGCCTGGTTAAGCGGCGGCAATGGGCTATTT
+AGCCTGTTTAATCTGGCAAACGGTATTCTTTGGCTACTGCTGATGCTGGTCTTCTTAAAA
+GATAAGCGGACGGGGAATT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC MQNRLQSGGRLGRQALLFPLCLVLYEFSTYIGNDMIQPGMLAVVEQYQAGLDWVPTSMTA
+         ||| | || ||||||||||||||||||||||||||||||||||||||||| ||||||| |
+     ref MQNKLASGARLGRQALLFPLCLVLYEFSTYIGNDMIQPGMLAVVEQYQAGIDWVPTSMNA
+0060 OLC YLAGGMFLQWLLGPLSDRIGRRPVMLAGVVWFIVTCLATLLAKNIEQFTFLRFLQGISLC
+         |||||||||||||||||||||||||||||||||||||| ||| |||||| ||||||||||
+     ref YLAGGMFLQWLLGPLSDRIGRRPVMLAGVVWFIVTCLAILLAQNIEQFTLLRFLQGISLC
+0120 OLC FIGAVGYAAIQESFEEAVCIKITALMANVALIAPLLGPLVGAAWVHVLPWEGMFILFAAL
+         |||||||||||||||||||||||||||||||||||||||||||| ||||||||| |||||
+     ref FIGAVGYAAIQESFEEAVCIKITALMANVALIAPLLGPLVGAAWIHVLPWEGMFVLFAAL
+0180 OLC AAIAFFGLQRAMPETATRRGETLSFKALGRDYRLVIKNRRFVAGALALGFVSLPLLAWIA
+         ||| |||||||||||||| || || | ||||| || || |||||||||||||||||||||
+     ref AAISFFGLQRAMPETATRIGEKLSLKELGRDYKLVLKNGRFVAGALALGFVSLPLLAWIA
+0240 OLC QSPIIIISGEQLSSYEYGLLQVPVFGALIAGNLVLARLTSRRTVRSLIVMGGWPIVAGLI
+         ||||||| ||||||||||||||| ||||||||| |||||||||||||| ||||||  || 
+     ref QSPIIIITGEQLSSYEYGLLQVPIFGALIAGNLLLARLTSRRTVRSLIIMGGWPIMIGLL
+0300 OLC IAAAATVVSSHAYLWMTAGLSVYAFGIGLANAGLVRLTLFSSDMSKGTVSAAMGMLQMLI
+          |||||| ||||||||||||| |||||||||||||||||| |||||||||||||||||||
+     ref VAAAATVISSHAYLWMTAGLSIYAFGIGLANAGLVRLTLFASDMSKGTVSAAMGMLQMLI
+0360 OLC FTVGIEVSKHAWLSGGNGLFSLFNLANGILWLLLMLVFLKDKRTGN
+         |||||| |||||| |||||| |||| |||||| ||  |||||  ||
+     ref FTVGIEISKHAWLNGGNGLFNLFNLVNGILWLSLMVIFLKDKQMGN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC ATGCAGAATCGTTTACAATCAGGCGGCAGGCTGGGACGTCAGGCGCTGCTTTTTCCTCTC
+         ||||| |||   |||   || || | |||||| |||||||||||| | ||||| ||||||
+     ref ATGCAAAATAAATTAGCTTCCGGTGCCAGGCTTGGACGTCAGGCGTTACTTTTCCCTCTC
+0060 OLC TGTCTGGTGCTGTACGAGTTTTCTACTTATATTGGCAACGACATGATCCAACCGGGTATG
+         ||||||||||| ||||| ||||| || ||||| |||||||| ||||| ||||| ||||||
+     ref TGTCTGGTGCTTTACGAATTTTCAACCTATATCGGCAACGATATGATTCAACCCGGTATG
+0120 OLC CTGGCGGTGGTTGAGCAGTATCAGGCGGGCCTGGACTGGGTTCCGACGTCCATGACCGCT
+          |||| ||||| || || |||||||||||| | || |||||||| || || |||| ||| 
+     ref TTGGCCGTGGTGGAACAATATCAGGCGGGCATTGATTGGGTTCCTACTTCGATGAACGCG
+0180 OLC TATCTGGCGGGCGGTATGTTCTTACAATGGCTGCTTGGCCCGTTGTCTGACCGGATTGGC
+         |||||||||||||| ||||| |||||||||||||| || ||| |||| || || ||||| 
+     ref TATCTGGCGGGCGGGATGTTTTTACAATGGCTGCTGGGGCCGCTGTCGGATCGTATTGGT
+0240 OLC CGTCGTCCCGTGATGCTGGCGGGCGTCGTGTGGTTTATTGTCACCTGCCTGGCGACGTTA
+         || ||||| |||||||||||||| || ||||||||||| |||||||| ||||| |  || 
+     ref CGCCGTCCGGTGATGCTGGCGGGAGTGGTGTGGTTTATCGTCACCTGTCTGGCAATATTG
+0300 OLC CTGGCGAAAAACATCGAACAATTTACATTCCTGCGTTTTTTGCAAGGGATTAGCCTGTGT
+         |||||| ||||||| |||||||| ||  |  |||| || ||||| || || ||||| |||
+     ref CTGGCGCAAAACATTGAACAATTCACCCTGTTGCGCTTCTTGCAGGGCATAAGCCTCTGT
+0360 OLC TTTATCGGCGCTGTAGGGTATGCCGCGATTCAGGAATCCTTTGAGGAGGCGGTGTGTATA
+         || || |||||||| || || ||||| |||||||||||||| || |||||||| ||||| 
+     ref TTCATTGGCGCTGTGGGATACGCCGCAATTCAGGAATCCTTCGAAGAGGCGGTTTGTATC
+0420 OLC AAAATTACCGCGCTGATGGCGAACGTGGCGTTAATCGCGCCGCTACTGGGACCACTAGTT
+         || || |||||||||||||||||||||||| | || || |||||||| || || || || 
+     ref AAGATCACCGCGCTGATGGCGAACGTGGCGCTGATTGCTCCGCTACTTGGTCCGCTGGTG
+0480 OLC GGGGCGGCATGGGTGCATGTTCTGCCGTGGGAGGGGATGTTTATTTTATTTGCCGCACTG
+         || ||||| ||| | ||||| ||||| ||||||||||||||| |||| ||||||||| ||
+     ref GGCGCGGCGTGGATCCATGTGCTGCCCTGGGAGGGGATGTTTGTTTTGTTTGCCGCATTG
+0540 OLC GCCGCTATCGCCTTTTTCGGGCTACAGCGCGCAATGCCGGAGACCGCCACGCGGCGGGGC
+         || || ||| |||||||||| || || || || ||||| || |||||||||||    |||
+     ref GCAGCGATCTCCTTTTTCGGTCTGCAACGAGCCATGCCTGAAACCGCCACGCGTATAGGC
+0600 OLC GAAACGCTGTCATTTAAGGCGCTTGGCCGGGATTATCGGCTGGTGATAAAAAATCGGCGG
+         || |  |||||| | || |  || || || || |||  ||||||| | || ||  | || 
+     ref GAGAAACTGTCACTGAAAGAACTCGGTCGTGACTATAAGCTGGTGCTGAAGAACGGCCGC
+0660 OLC TTCGTCGCAGGGGCGTTAGCGCTGGGATTTGTCAGCCTGCCGCTGTTGGCCTGGATTGCG
+         || || || |||||| | ||||||||||| || || |||||| || |||| ||||| || 
+     ref TTTGTGGCGGGGGCGCTGGCGCTGGGATTCGTTAGTCTGCCGTTGCTGGCGTGGATCGCC
+0720 OLC CAGTCGCCGATTATCATCATTAGCGGCGAACAGCTCAGCAGCTATGAATATGGTTTGCTG
+         |||||||||||||||||||||| |||||| ||| | ||||||||||||||||| ||||||
+     ref CAGTCGCCGATTATCATCATTACCGGCGAGCAGTTGAGCAGCTATGAATATGGCTTGCTG
+0780 OLC CAGGTGCCCGTTTTTGGCGCGCTCATTGCCGGTAATCTGGTGTTGGCGCGTTTAACCTCC
+         || |||||  |||| || ||| | ||||| |||||  || |||| |||||| | ||||| 
+     ref CAAGTGCCTATTTTCGGGGCGTTAATTGCGGGTAACTTGCTGTTAGCGCGTCTGACCTCG
+0840 OLC CGACGTACGGTTCGCTCGCTGATCGTGATGGGCGGCTGGCCTATCGTCGCGGGGCTGATC
+         || || || || || ||||||||  | |||||||||||||| ||  |    || ||  | 
+     ref CGCCGCACCGTACGTTCGCTGATTATTATGGGCGGCTGGCCGATTATGATTGGTCTATTG
+0900 OLC ATCGCCGCGGCGGCGACGGTGGTTTCATCCCATGCTTATTTATGGATGACGGCGGGATTA
+          |||| || ||||| |||||  | ||||| || || |||||||||||||| || || |||
+     ref GTCGCTGCTGCGGCAACGGTTATCTCATCGCACGCGTATTTATGGATGACTGCCGGGTTA
+0960 OLC AGCGTATACGCTTTTGGCATTGGGCTGGCGAATGCCGGACTGGTGCGTCTGACGCTCTTT
+         ||  | || ||||| || ||||| ||||||||||| |||||||||||  | || || |||
+     ref AGTATTTATGCTTTCGGTATTGGTCTGGCGAATGCGGGACTGGTGCGATTAACCCTGTTT
+1020 OLC TCCAGCGATATGAGTAAAGGAACGGTCTCGGCGGCGATGGGAATGCTACAAATGCTGATT
+          ||||||||||||||||||| ||||| || || |||||||||||||| ||||||||||| 
+     ref GCCAGCGATATGAGTAAAGGTACGGTTTCTGCCGCGATGGGAATGCTGCAAATGCTGATC
+1080 OLC TTTACCGTTGGCATTGAAGTCAGTAAACACGCCTGGTTAAGCGGCGGCAATGGGCTATTT
+         ||||||||||| |||||| |||| ||||| |||||| | | ||| ||||| || || |||
+     ref TTTACCGTTGGTATTGAAATCAGCAAACATGCCTGGCTGAACGGGGGCAACGGACTGTTT
+1140 OLC AGCCTGTTTAATCTGGCAAACGGTATTCTTTGGCTACTGCTGATGCTGGTCTTCTTAAAA
+         |  || || || || |  ||||| ||| | |||||   ||||||| |  |||| ||||||
+     ref AATCTCTTCAACCTTGTCAACGGAATTTTGTGGCTGTCGCTGATGGTTATCTTTTTAAAA
+1200 OLC GATAAGCGGACGGGGAATT
+         ||||| | || ||| ||||
+     ref GATAAACAGATGGGAAATT
+</t>
+  </si>
+  <si>
+    <t>6;10;11;12;16;17;18;21;24
+26;33;46;48;54;72;78;84
+87;93;102;108;114;121
+126;132;135;138;151
+153;156;165;168;171
+176;180;195;201;216
+219;223;228;231;234
+240;243;249;264;267
+279;288;294;296;297
+300;307;315;324;327
+328;330;331;336;339
+345;348;351;357;363
+366;375;378;381;387
+402;405;414;420;423
+426;451;453;456;459
+468;471;474;477;480
+483;489;493;495;501
+507;523;528;538;543
+546;550;561;564;567
+570;573;579;582;594
+595;596;597;603;605
+606;613;615;618;620
+621;624;627;630;633
+637;638;646;648;651
+654;655;657;660;663
+666;669;676;678;690
+693;696;703;706;711
+717;720;743;750;754
+756;774;783;789;790
+795;798;802;804;810
+816;817;820;825;832
+834;840;843;846;849
+852;855;864;865;867
+882;885;886;888;889
+890;891;894;897;898
+900;901;906;909;915
+921;922;924;930;933
+936;951;954;957;963
+964;966;969;975;978
+984;996;1008;1009;1011
+1014;1017;1021;1041
+1047;1050;1053;1068
+1080;1092;1099;1104
+1110;1117;1119;1121
+1125;1131;1134;1137
+1142;1143;1146;1149
+1152;1155;1157;1158
+1164;1168;1170;1176
+1177;1178;1186;1188
+1189;1194;1206;1208
+1211;1215</t>
+  </si>
+  <si>
+    <t>2019-CAL-0091</t>
+  </si>
+  <si>
+    <t>mcr-9</t>
+  </si>
+  <si>
+    <t>colistin</t>
+  </si>
+  <si>
+    <t>Contig_5_123.744</t>
+  </si>
+  <si>
+    <t>4474...6093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2019-CAL-0091_mcr_9_1_NZ_NAAN01000063.1
+TTAGCCACGGCATTCGCGGAACAAATCGCGGTCAGGATTATAGACGCTGGTGCTTACGTC
+CCACAGCCCCAAAATCGATGAGAACAGGTTGTCGTGGGAATATGATTTTTTCGCCGCATT
+ATTTTCAAGGCAAGACATGTTGATGTGTTTCCCGGCGATAAAGCCCGGTGACATCCAGAC
+CTGCATCGGAATATGCGTCTGCTGATCCGGTGCCAGTTTGTACGGCGTGCCGTGCAGATA
+TAGCCCGCTTTCGCCCAATGATTCACCATGATCGGACACATAAAGCAGCACGGTGTTGTA
+CTGATCGCTGTAATTTTTTAGCTTTTCAATCATCTCAGCTAATACATAGTCTGTATAACG
+AAGGGTGTTGTCGTAGGTGTTGACCAATTGTTCCTGAGTACAGTTTTCGATATCGCTACG
+TGCACATTCGGGCATGAAGTGGCGATGCTCAGCCGGATAACGCAGGTAATAAGTCGGTCC
+ATGGCTGCCAATGATATGGAAGGCGACAAGCTTATCACCTGGCATTTTGGCGATTTCATC
+ATCAAGGTTTTCCAGCATCACCTCGTCATGGCACGTTTTGCCATCGCACAGTTTCGGGTT
+ATCACTAGGCTTAATTTCGACAGTCGGGATGCGGCTACATACGCCTTTACAACCGCCATC
+GTTCTCTTTCCATAACAGCGAGACACCGGTTTTCTGCACGATGTCGAGGAAATTTTCACT
+GTTAGATGCTTTTTTACTGTCGTACTCGGTGCGATTCATATTCGAGAACATGCACGGAAC
+GGATATTGCGGTAGCGGTACCGCAGGAATGCATATTTTTAAACGAAATAACGCCGCCGGA
+TTTGCTGGTAAAGGCATTGGTATCACGCGAATAACCGTTCATCGAGAAATTCTGGCTGCG
+TGCCGTTTCGCCAATCACCAGGAACATCAGCGTGGGTTTTTCGTGAGCGACGACGCGTTT
+AGCATCATTCCCCAGCGTCTGGAAAGGCACTTTAGTCGTAAAGTACGTATCCTTAACATA
+CTGGAAAGTGCTGTAAGCGTAGTTCGCCGGGATGATCTCTTTATTCAATGTCGAGTTATT
+GCGGCCGACAGAGGCATAATCCTGATAATAAAGTGCGGCAACACCTGCAATCAAACTCAA
+CGATGCCAGCACGGAGAGCAAACGGTAAGCAATGCCTTTATACCATTTTTCAGGATATTG
+AATTTTTATTGAAAAAAGGAGGATGGCAGGAAGGATACCGGTAAAGACGAACCATATAAT
+AATTGAGCCATTAAGATAGGAATGCGCTTCCTGGGGGTTAGTTTCAATAATGTTTTGAAT
+CATCGTTTGATCAAACATTACTTTATATTTTAGTGTCGAATAACTGACCAGTGAGCCAGT
+GATAAACAGTAAAGCAAAGAAAGGTTTCAGCAGAAAACGAACTGAGAAAGGCATAAAAAC
+AACGTTAAGCGCCGCAACCAGAACAAAGGGAATAGAAATGACAAAACCAATTTTGACATG
+CTCTAAATGCGACAAAATCTCGTAAAAATGCAGCAATATTGGCCAGTTAAGTAAAAACGC
+AAAGATCATTGCCAGAAGTAAAACCAGCGGAATAACTTTCACCCTGAAAAGTACAGGCAT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC LATAFAEQIAVRIIDAGAYVPQPQNR*EQVVVGI*FFRRIIFKARHVDVFPGDKAR*HPD
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref LATAFAEQIAVRIIDAGAYVPQPQNR*EQVVVGI*FFRRIIFKARHVDVFPGDKAR*HPD
+0060 OLC LHRNMRLLIRCQFVRRAVQI*PAFAQ*FTMIGHIKQHGVVLIAVIF*LFNHLS*YIVCIT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref LHRNMRLLIRCQFVRRAVQI*PAFAQ*FTMIGHIKQHGVVLIAVIF*LFNHLS*YIVCIT
+0120 OLC KGVVVGVDQLFLSTVFDIATCTFGHEVAMLSRITQVISRSMAANDMEGDKLITWHFGDFI
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref KGVVVGVDQLFLSTVFDIATCTFGHEVAMLSRITQVISRSMAANDMEGDKLITWHFGDFI
+0180 OLC IKVFQHHLVMARFAIAQFRVITRLNFDSRDAATYAFTTAIVLFP*QRDTGFLHDVEEIFT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref IKVFQHHLVMARFAIAQFRVITRLNFDSRDAATYAFTTAIVLFP*QRDTGFLHDVEEIFT
+0240 OLC VRCFFTVVLGAIHIREHARNGYCGSGTAGMHIFKRNNAAGFAGKGIGITRITVHREILAA
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref VRCFFTVVLGAIHIREHARNGYCGSGTAGMHIFKRNNAAGFAGKGIGITRITVHREILAA
+0300 OLC CRFANHQEHQRGFFVSDDAFSIIPQRLERHFSRKVRILNILESAVSVVRRDDLFIQCRVI
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CRFANHQEHQRGFFVSDDAFSIIPQRLERHFSRKVRILNILESAVSVVRRDDLFIQCRVI
+0360 OLC AADRGIILIIKCGNTCNQTQRCQHGEQTVSNAFIPFFRILNFY*KKEDGRKDTGKDEPYN
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref AADRGIILIIKCGNTCNQTQRCQHGEQTVSNAFIPFFRILNFY*KKEDGRKDTGKDEPYN
+0420 OLC N*AIKIGMRFLGVSFNNVLNHRLIKHYFIF*CRITDQ*ASDKQ*SKERFQQKTN*ERHKN
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref N*AIKIGMRFLGVSFNNVLNHRLIKHYFIF*CRITDQ*ASDKQ*SKERFQQKTN*ERHKN
+0480 OLC NVKRRNQNKGNRNDKTNFDML*MRQNLVKMQQYWPVK*KRKDHCQK*NQRNNFHPEKYRH
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref NVKRRNQNKGNRNDKTNFDML*MRQNLVKMQQYWPVK*KRKDHCQK*NQRNNFHPEKYRH
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC TTAGCCACGGCATTCGCGGAACAAATCGCGGTCAGGATTATAGACGCTGGTGCTTACGTC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref TTAGCCACGGCATTCGCGGAACAAATCGCGGTCAGGATTATAGACGCTGGTGCTTACGTC
+0060 OLC CCACAGCCCCAAAATCGATGAGAACAGGTTGTCGTGGGAATATGATTTTTTCGCCGCATT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CCACAGCCCCAAAATCGATGAGAACAGGTTGTCGTGGGAATATGATTTTTTCGCCGCATT
+0120 OLC ATTTTCAAGGCAAGACATGTTGATGTGTTTCCCGGCGATAAAGCCCGGTGACATCCAGAC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref ATTTTCAAGGCAAGACATGTTGATGTGTTTCCCGGCGATAAAGCCCGGTGACATCCAGAC
+0180 OLC CTGCATCGGAATATGCGTCTGCTGATCCGGTGCCAGTTTGTACGGCGTGCCGTGCAGATA
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CTGCATCGGAATATGCGTCTGCTGATCCGGTGCCAGTTTGTACGGCGTGCCGTGCAGATA
+0240 OLC TAGCCCGCTTTCGCCCAATGATTCACCATGATCGGACACATAAAGCAGCACGGTGTTGTA
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref TAGCCCGCTTTCGCCCAATGATTCACCATGATCGGACACATAAAGCAGCACGGTGTTGTA
+0300 OLC CTGATCGCTGTAATTTTTTAGCTTTTCAATCATCTCAGCTAATACATAGTCTGTATAACG
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CTGATCGCTGTAATTTTTTAGCTTTTCAATCATCTCAGCTAATACATAGTCTGTATAACG
+0360 OLC AAGGGTGTTGTCGTAGGTGTTGACCAATTGTTCCTGAGTACAGTTTTCGATATCGCTACG
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref AAGGGTGTTGTCGTAGGTGTTGACCAATTGTTCCTGAGTACAGTTTTCGATATCGCTACG
+0420 OLC TGCACATTCGGGCATGAAGTGGCGATGCTCAGCCGGATAACGCAGGTAATAAGTCGGTCC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref TGCACATTCGGGCATGAAGTGGCGATGCTCAGCCGGATAACGCAGGTAATAAGTCGGTCC
+0480 OLC ATGGCTGCCAATGATATGGAAGGCGACAAGCTTATCACCTGGCATTTTGGCGATTTCATC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref ATGGCTGCCAATGATATGGAAGGCGACAAGCTTATCACCTGGCATTTTGGCGATTTCATC
+0540 OLC ATCAAGGTTTTCCAGCATCACCTCGTCATGGCACGTTTTGCCATCGCACAGTTTCGGGTT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref ATCAAGGTTTTCCAGCATCACCTCGTCATGGCACGTTTTGCCATCGCACAGTTTCGGGTT
+0600 OLC ATCACTAGGCTTAATTTCGACAGTCGGGATGCGGCTACATACGCCTTTACAACCGCCATC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref ATCACTAGGCTTAATTTCGACAGTCGGGATGCGGCTACATACGCCTTTACAACCGCCATC
+0660 OLC GTTCTCTTTCCATAACAGCGAGACACCGGTTTTCTGCACGATGTCGAGGAAATTTTCACT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref GTTCTCTTTCCATAACAGCGAGACACCGGTTTTCTGCACGATGTCGAGGAAATTTTCACT
+0720 OLC GTTAGATGCTTTTTTACTGTCGTACTCGGTGCGATTCATATTCGAGAACATGCACGGAAC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref GTTAGATGCTTTTTTACTGTCGTACTCGGTGCGATTCATATTCGAGAACATGCACGGAAC
+0780 OLC GGATATTGCGGTAGCGGTACCGCAGGAATGCATATTTTTAAACGAAATAACGCCGCCGGA
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref GGATATTGCGGTAGCGGTACCGCAGGAATGCATATTTTTAAACGAAATAACGCCGCCGGA
+0840 OLC TTTGCTGGTAAAGGCATTGGTATCACGCGAATAACCGTTCATCGAGAAATTCTGGCTGCG
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref TTTGCTGGTAAAGGCATTGGTATCACGCGAATAACCGTTCATCGAGAAATTCTGGCTGCG
+0900 OLC TGCCGTTTCGCCAATCACCAGGAACATCAGCGTGGGTTTTTCGTGAGCGACGACGCGTTT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref TGCCGTTTCGCCAATCACCAGGAACATCAGCGTGGGTTTTTCGTGAGCGACGACGCGTTT
+0960 OLC AGCATCATTCCCCAGCGTCTGGAAAGGCACTTTAGTCGTAAAGTACGTATCCTTAACATA
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref AGCATCATTCCCCAGCGTCTGGAAAGGCACTTTAGTCGTAAAGTACGTATCCTTAACATA
+1020 OLC CTGGAAAGTGCTGTAAGCGTAGTTCGCCGGGATGATCTCTTTATTCAATGTCGAGTTATT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CTGGAAAGTGCTGTAAGCGTAGTTCGCCGGGATGATCTCTTTATTCAATGTCGAGTTATT
+1080 OLC GCGGCCGACAGAGGCATAATCCTGATAATAAAGTGCGGCAACACCTGCAATCAAACTCAA
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref GCGGCCGACAGAGGCATAATCCTGATAATAAAGTGCGGCAACACCTGCAATCAAACTCAA
+1140 OLC CGATGCCAGCACGGAGAGCAAACGGTAAGCAATGCCTTTATACCATTTTTCAGGATATTG
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CGATGCCAGCACGGAGAGCAAACGGTAAGCAATGCCTTTATACCATTTTTCAGGATATTG
+1200 OLC AATTTTTATTGAAAAAAGGAGGATGGCAGGAAGGATACCGGTAAAGACGAACCATATAAT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref AATTTTTATTGAAAAAAGGAGGATGGCAGGAAGGATACCGGTAAAGACGAACCATATAAT
+1260 OLC AATTGAGCCATTAAGATAGGAATGCGCTTCCTGGGGGTTAGTTTCAATAATGTTTTGAAT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref AATTGAGCCATTAAGATAGGAATGCGCTTCCTGGGGGTTAGTTTCAATAATGTTTTGAAT
+1320 OLC CATCGTTTGATCAAACATTACTTTATATTTTAGTGTCGAATAACTGACCAGTGAGCCAGT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CATCGTTTGATCAAACATTACTTTATATTTTAGTGTCGAATAACTGACCAGTGAGCCAGT
+1380 OLC GATAAACAGTAAAGCAAAGAAAGGTTTCAGCAGAAAACGAACTGAGAAAGGCATAAAAAC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref GATAAACAGTAAAGCAAAGAAAGGTTTCAGCAGAAAACGAACTGAGAAAGGCATAAAAAC
+1440 OLC AACGTTAAGCGCCGCAACCAGAACAAAGGGAATAGAAATGACAAAACCAATTTTGACATG
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref AACGTTAAGCGCCGCAACCAGAACAAAGGGAATAGAAATGACAAAACCAATTTTGACATG
+1500 OLC CTCTAAATGCGACAAAATCTCGTAAAAATGCAGCAATATTGGCCAGTTAAGTAAAAACGC
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref CTCTAAATGCGACAAAATCTCGTAAAAATGCAGCAATATTGGCCAGTTAAGTAAAAACGC
+1560 OLC AAAGATCATTGCCAGAAGTAAAACCAGCGGAATAACTTTCACCCTGAAAAGTACAGGCAT
+         ||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||
+     ref AAAGATCATTGCCAGAAGTAAAACCAGCGGAATAACTTTCACCCTGAAAAGTACAGGCAT
+</t>
+  </si>
+  <si>
+    <t>Contig_16_56.9627</t>
+  </si>
+  <si>
+    <t>298368...299543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2019-CAL-0091_mdf(A)_1_Y08743
+CTCGGACGCCAGGCGCTGCTGTTCCCGCTCTGCCTGGTGCTCTACGAATTCTCGACTTAT
+ATCGGCAACGACATGATCCAGCCGGGCATGCTCGCGGTCGTCGAACAGTATCAGGCGGGC
+GTCGAATGGGTGCCCACCTCTATGACCGCCTATCTCGCGGGCGGCATGTTTTTACAGTGG
+CTGCTCGGCCCGCTCTCTGACCGTATCGGCAGACGCCCGGTGATGCTGGCGGGCGTGGCG
+TGGTTTATCGTCACCTGTCTTGCCACGTTGCTCGCCCGGGACATTGAACAGTTCACCGTG
+CTGCGCTTTTTGCAGGGCATCAGCCTGTGCTTTATCGGCGCGGTGGGTTATGCCGCGATT
+CAGGAGTCGTTTGAAGAGGCGGTGTGTATCAAAATCACCGCGTTAATGGCGAACGTCGCG
+CTTATCGCGCCGCTGTTGGGGCCGCTCGTCGGGGCTGCCTGGGTACACGCCGCGCCCTGG
+GAGATGATGTTTGTGCTTTTCGCCGTGCTGGCGGCCATCTCGTTCTTTGGCCTGTGGCGC
+GCTATGCCGGAGACGGCCACGCGGCTTGGCGAGAAGCTGTCGCTGCGTGAACTGGGCCGT
+GACTATAAAGCCGTGCTGAAAAACCTGCGCTTTGTGTCCGGGGCGCTGGCGATAGGTTTT
+GTCAGCCTGCCGCTGCTGGCGTGGATTGCGCAGTCGCCGGTCATTATCATCAGCGGCGAG
+CAGATGAGCACCTATGAATATGGCCTGTTGCAGGTGCCGATTTTCGGCGCGCTGATCATC
+GGCAACCTGGTGCTGGCGAAGCTCACCGCCCGGCGCTCCGTGCGCTCGCTGATTGTGATG
+GGCGGCTGGCCGATGATGTTCGGGCT----GGCGCTGGCGGCGCTCGCCACGGTGATTTC
+ATCGCACGCGTACCTCTGGATGACGGCGGGGCTCAGCATCTACGCTTTCGGCATCGGCAT
+TGCTAACGCGGGCCTGGTGCGCCTGACGCTCTTTGCCAGCGACATCAGCAAAGGCACCGT
+CTCGGCGGCGATGGGCATGTTGCAGATGACCATTTTCACGGTGGGTATCGAAATCAGTAA
+ACACGCCTGGCTTGGCGGCGGCAACGCGCTGTTTAACCTGTTTAACTTCGCAAGCGGCCT
+CCTGTGGCTGGGCCTGATGGTGATTTTCCTGAAGGACAAA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC LGRQALLFPLCLVLYEFSTYIGNDMIQPGMLAVVEQYQAGVEWVPTSMTAYLAGGMFLQW
+         ||||||||||||||||||||||||||||||||||||||||  |||||| |||||||||||
+     ref LGRQALLFPLCLVLYEFSTYIGNDMIQPGMLAVVEQYQAGIDWVPTSMNAYLAGGMFLQW
+0060 OLC LLGPLSDRIGRRPVMLAGVAWFIVTCLATLLARDIEQFTVLRFLQGISLCFIGAVGYAAI
+         ||||||||||||||||||| |||||||| |||  ||||| ||||||||||||||||||||
+     ref LLGPLSDRIGRRPVMLAGVVWFIVTCLAILLAQNIEQFTLLRFLQGISLCFIGAVGYAAI
+0120 OLC QESFEEAVCIKITALMANVALIAPLLGPLVGAAWVHAAPWEMMFVLFAVLAAISFFGLWR
+         |||||||||||||||||||||||||||||||||| |  ||| |||||| ||||||||| |
+     ref QESFEEAVCIKITALMANVALIAPLLGPLVGAAWIHVLPWEGMFVLFAALAAISFFGLQR
+0180 OLC AMPETATRLGEKLSLRELGRDYKAVLKNLRFVSGALAIGFVSLPLLAWIAQSPVIIISGE
+         |||||||| |||||| ||||||| |||| ||| |||| ||||||||||||||| ||| ||
+     ref AMPETATRIGEKLSLKELGRDYKLVLKNGRFVAGALALGFVSLPLLAWIAQSPIIIITGE
+0240 OLC QMSTYEYGLLQVPIFGALIIGNLVLAKLTARRSVRSLIVMGGWPMMFGLALAALATVISS
+         | | ||||||||||||||| ||| || || || ||||| ||||| | ||  || ||||||
+     ref QLSSYEYGLLQVPIFGALIAGNLLLARLTSRRTVRSLIIMGGWPIMIGLLVAAAATVISS
+0300 OLC HAYLWMTAGLSIYAFGIGIANAGLVRLTLFASDISKGTVSAAMGMLQMTIFTVGIEISKH
+         |||||||||||||||||| |||||||||||||| |||||||||||||| |||||||||||
+     ref HAYLWMTAGLSIYAFGIGLANAGLVRLTLFASDMSKGTVSAAMGMLQMLIFTVGIEISKH
+0360 OLC AWLGGGNALFNLFNFASGLLWLGLMVIFLKDK
+         ||| ||| ||||||   | ||| |||||||||
+     ref AWLNGGNGLFNLFNLVNGILWLSLMVIFLKDK
+</t>
+  </si>
+  <si>
+    <t>41;42;49;80;89;93;94;100
+155;157;158;162;169
+179;189;196;204;209
+213;218;234;238;242
+244;260;264;267;270
+273;279;285;287;290
+291;294;319;334;349
+364;368;375;376;377
+379;383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC CTCGGACGCCAGGCGCTGCTGTTCCCGCTCTGCCTGGTGCTCTACGAATTCTCGACTTAT
+         || ||||| |||||| | || ||||| ||||| |||||||| |||||||| || || |||
+     ref CTTGGACGTCAGGCGTTACTTTTCCCTCTCTGTCTGGTGCTTTACGAATTTTCAACCTAT
+0060 OLC ATCGGCAACGACATGATCCAGCCGGGCATGCTCGCGGTCGTCGAACAGTATCAGGCGGGC
+         ||||||||||| ||||| || || || ||| | || || || ||||| ||||||||||||
+     ref ATCGGCAACGATATGATTCAACCCGGTATGTTGGCCGTGGTGGAACAATATCAGGCGGGC
+0120 OLC GTCGAATGGGTGCCCACCTCTATGACCGCCTATCTCGCGGGCGGCATGTTTTTACAGTGG
+          | || ||||| || || || |||| ||| ||||| |||||||| ||||||||||| |||
+     ref ATTGATTGGGTTCCTACTTCGATGAACGCGTATCTGGCGGGCGGGATGTTTTTACAATGG
+0180 OLC CTGCTCGGCCCGCTCTCTGACCGTATCGGCAGACGCCCGGTGATGCTGGCGGGCGTGGCG
+         ||||| || ||||| || || ||||| ||  | || ||||||||||||||||| |||| |
+     ref CTGCTGGGGCCGCTGTCGGATCGTATTGGTCGCCGTCCGGTGATGCTGGCGGGAGTGGTG
+0240 OLC TGGTTTATCGTCACCTGTCTTGCCACGTTGCTCGCCCGGGACATTGAACAGTTCACCGTG
+         |||||||||||||||||||| || |  ||||| || |   |||||||||| |||||| ||
+     ref TGGTTTATCGTCACCTGTCTGGCAATATTGCTGGCGCAAAACATTGAACAATTCACCCTG
+0300 OLC CTGCGCTTTTTGCAGGGCATCAGCCTGTGCTTTATCGGCGCGGTGGGTTATGCCGCGATT
+          ||||||| ||||||||||| ||||| || || || ||||| ||||| || ||||| |||
+     ref TTGCGCTTCTTGCAGGGCATAAGCCTCTGTTTCATTGGCGCTGTGGGATACGCCGCAATT
+0360 OLC CAGGAGTCGTTTGAAGAGGCGGTGTGTATCAAAATCACCGCGTTAATGGCGAACGTCGCG
+         ||||| || || ||||||||||| |||||||| ||||||||| | ||||||||||| |||
+     ref CAGGAATCCTTCGAAGAGGCGGTTTGTATCAAGATCACCGCGCTGATGGCGAACGTGGCG
+0420 OLC CTTATCGCGCCGCTGTTGGGGCCGCTCGTCGGGGCTGCCTGGGTACACGCCGCGCCCTGG
+         || || || |||||  | || ||||| || || || || ||| | || |    |||||||
+     ref CTGATTGCTCCGCTACTTGGTCCGCTGGTGGGCGCGGCGTGGATCCATGTGCTGCCCTGG
+0480 OLC GAGATGATGTTTGTGCTTTTCGCCGTGCTGGCGGCCATCTCGTTCTTTGGCCTGTGGCGC
+         |||  |||||||||  | || ||||   |||| || ||||| || || || |||   || 
+     ref GAGGGGATGTTTGTTTTGTTTGCCGCATTGGCAGCGATCTCCTTTTTCGGTCTGCAACGA
+0540 OLC GCTATGCCGGAGACGGCCACGCGGCTTGGCGAGAAGCTGTCGCTGCGTGAACTGGGCCGT
+         || ||||| || || ||||||||  | |||||||| ||||| |||   ||||| || |||
+     ref GCCATGCCTGAAACCGCCACGCGTATAGGCGAGAAACTGTCACTGAAAGAACTCGGTCGT
+0600 OLC GACTATAAAGCCGTGCTGAAAAACCTGCGCTTTGTGTCCGGGGCGCTGGCGATAGGTTTT
+         ||||||||    |||||||| |||   ||||||||| | |||||||||||| | || || 
+     ref GACTATAAGCTGGTGCTGAAGAACGGCCGCTTTGTGGCGGGGGCGCTGGCGCTGGGATTC
+0660 OLC GTCAGCCTGCCGCTGCTGGCGTGGATTGCGCAGTCGCCGGTCATTATCATCAGCGGCGAG
+         || || |||||| ||||||||||||| || ||||||||| | || ||||| | |||||||
+     ref GTTAGTCTGCCGTTGCTGGCGTGGATCGCCCAGTCGCCGATTATCATCATTACCGGCGAG
+0720 OLC CAGATGAGCACCTATGAATATGGCCTGTTGCAGGTGCCGATTTTCGGCGCGCTGATCATC
+         ||| |||||| ||||||||||||| || |||| ||||| |||||||| ||| | ||    
+     ref CAGTTGAGCAGCTATGAATATGGCTTGCTGCAAGTGCCTATTTTCGGGGCGTTAATTGCG
+0780 OLC GGCAACCTGGTGCTGGCGAAGCTCACCGCCCGGCGCTCCGTGCGCTCGCTGATTGTGATG
+         || ||| || || | |||   || ||| | || ||| |||| || ||||||||| | |||
+     ref GGTAACTTGCTGTTAGCGCGTCTGACCTCGCGCCGCACCGTACGTTCGCTGATTATTATG
+0840 OLC GGCGGCTGGCCGATGATGTTCGGGCT----GGCGCTGGCGGCGCTCGCCACGGTGATTTC
+         |||||||||||||| ||| | || ||    | |||| || |||   || ||||| || ||
+     ref GGCGGCTGGCCGATTATGATTGGTCTATTGGTCGCT-GCTGCG---GCAACGGTTATCTC
+0900 OLC ATCGCACGCGTACCTCTGGATGACGGCGGGGCTCAGCATCTACGCTTTCGGCATCGGCAT
+         ||||||||||||  | |||||||| || ||| | || || || |||||||| || ||  |
+     ref ATCGCACGCGTATTTATGGATGACTGCCGGGTTAAGTATTTATGCTTTCGGTATTGGTCT
+0960 OLC TGCTAACGCGGGCCTGGTGCGCCTGACGCTCTTTGCCAGCGACATCAGCAAAGGCACCGT
+          || || ||||| ||||||||  | || || ||||||||||| || || ||||| || ||
+     ref GGCGAATGCGGGACTGGTGCGATTAACCCTGTTTGCCAGCGATATGAGTAAAGGTACGGT
+1020 OLC CTCGGCGGCGATGGGCATGTTGCAGATGACCATTTTCACGGTGGGTATCGAAATCAGTAA
+          || || |||||||| ||| |||| |||   || || || || ||||| |||||||| ||
+     ref TTCTGCCGCGATGGGAATGCTGCAAATGCTGATCTTTACCGTTGGTATTGAAATCAGCAA
+1080 OLC ACACGCCTGGCTTGGCGGCGGCAACGCGCTGTTTAACCTGTTTAACTTCGCAAGCGGCCT
+         ||| ||||||||   ||| |||||||  |||||||| || || ||| | |  | |||  |
+     ref ACATGCCTGGCTGAACGGGGGCAACGGACTGTTTAATCTCTTCAACCTTGTCAACGGAAT
+1140 OLC CCTGTGGCTGGGCCTGATGGTGATTTTCCTGAAGGACAAA
+           ||||||||   |||||||| || ||  | || || |||
+     ref TTTGTGGCTGTCGCTGATGGTTATCTTTTTAAAAGATAAA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;9;16;18;21;27;33;42;51
+54;57;72;78;81;84;87;91
+93;96;99;102;108;121
+123;126;132;135;138
+141;146;150;156;165
+177;186;189;195;198
+201;207;210;211;213
+216;234;239;261;264
+266;267;273;276;278
+279;280;291;298;301
+309;321;327;330;333
+336;342;348;351;357
+366;369;372;384;393
+403;405;417;423;426
+429;435;436;438;441
+447;450;453;456;459
+463;465;468;470;471
+472;473;484;485;495
+496;498;501;506;507
+508;513;516;522;525
+528;531;535;536;537
+540;543;549;552;555
+564;565;567;576;582
+586;587;588;594;597
+609;610;611;612;621
+625;626;627;637;639
+652;654;657;660;663
+666;673;687;690;700
+702;705;711;713;724
+731;745;748;753;759
+768;772;774;777;778
+779;780;783;787;790
+793;795;799;800;801
+804;808;810;813;817
+822;825;835;837;855
+859;861;864;867;868
+869;870;872;877;880
+884;885;886;889;895
+898;913;914;916;925
+928;932;934;937;940
+943;952;955;958;959
+961;964;967;973;982
+983;985;988;991;1003
+1006;1009;1015;1018
+1021;1024;1027;1036
+1040;1045;1049;1050
+1051;1054;1057;1060
+1063;1069;1078;1084
+1093;1094;1095;1099
+1107;1108;1117;1120
+1123;1127;1129;1131
+1132;1134;1138;1139
+1141;1142;1151;1152
+1153;1162;1165;1168
+1169;1171;1174;1177
+</t>
+  </si>
+  <si>
+    <t>fos</t>
+  </si>
+  <si>
+    <t>1032252...1032659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2019-CAL-0091_fos_2_FN543093
+TTAATCATAAAACCGCATCCCCTTATAGGGCTCGGCACGACAGGCGGCGAGCCGGGTGGC
+GAGGCTGCCGACGTGCAGTTCGAGCTGATGCCCGTCCGGGTCGAGGAAATACCAGGAGTC
+GCCCTCGCTGCGGTTGGTTTTCCAGGTTTTCACGCCCGCGGCGGCCAGCTTATCCACCAT
+TAACGGGAAATCCGTCTCGCTCACGGTAAAGGCATAATGCGTGTAGTCCGCCGCAGGCTG
+CCCGGCGCTGTCATCCTGCGACAGACAGAGCCAGAGATCGCCGCAGGAGAGATACGCCCC
+GCCGTCCCAGCGCGCATGCAGCCGCAGCCCCAGCAGCGAGTGGTAAAACGCCAGGCTTTG
+CGCCACATCGCGCACGGCGAGCGTCAGATGATTAAGCCCGCTGAGCAT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC LIIKPHPLIGLGTTGGEPGGEAADVQFELMPVRVEEIPGVALAAVGFPGFHARGGQLIHH
+         ||||||  || |  ||||||||||||  ||||||| |||||||||||||  |||||  | 
+     ref LIIKPHSFIGRGAAGGEPGGEAADVQLKLMPVRVEKIPGVALAAVGFPGRYARGGQCFHY
+0060 OLC *REIRLAHGKGIMRVVRRRLPGAVILRQTEPEIAAGEIRPAVPARMQPQPQQRVVKRQAL
+          |||||  || |||||| |  |  | ||| |  ||  | |||||||| || || ||| | 
+     ref LREIRLTYGKRIMRVVRGRRTGIFIQRQTQPQRAARKICPAVPARMQSQPRQRLVKRKAS
+0120 OLC RHIAHGERQMIKPAEH
+         ||||| ||| ||||||
+     ref RHIAHRERQVIKPAEH
+</t>
+  </si>
+  <si>
+    <t>7;8;11;13;14;27;28;36;50
+51;57;58;60;61;67;68;71
+78;80;81;83;84;86;90;92
+93;96;97;99;108;111;114
+118;120;126;130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 OLC TTAATCATAAAACCGCATCCCCTTATAGGGCTCGGCACGACAGGCGGCGAGCCGGGTGGC
+         |||||||||||||||||| || ||||||||| |||| || ||||||||||||||||||||
+     ref TTAATCATAAAACCGCATTCCTTTATAGGGCGCGGCGCGGCAGGCGGCGAGCCGGGTGGC
+0060 OLC GAGGCTGCCGACGTGCAGTTCGAGCTGATGCCCGTCCGGGTCGAGGAAATACCAGGAGTC
+         |||||||||||||||||| || ||||||||||||||||||||||| ||||||||||||||
+     ref GAGGCTGCCGACGTGCAGCTCAAGCTGATGCCCGTCCGGGTCGAGAAAATACCAGGAGTC
+0120 OLC GCCCTCGCTGCGGTTGGTTTTCCAGGTTTTCACGCCCGCGGCGGCCAGCTTATCCACCAT
+         ||||||||||||||||||||||||||   | ||||||||||||| |||  | ||||| | 
+     ref GCCCTCGCTGCGGTTGGTTTTCCAGGGCGTTACGCCCGCGGCGGTCAGTGTTTCCACTAC
+0180 OLC TAACGGGAAATCCGTCTCGCTCACGGTAAAGGCATAATGCGTGTAGTCCGCCGCAGGCTG
+            ||||||||||| ||| || |||||||| |||||||||||||||||||| ||||||  
+     ref CTGCGGGAAATCCGCCTCACTTACGGTAAACGCATAATGCGTGTAGTCCGCGGCAGGCGA
+0240 OLC CCCGGCGCTGTCATCCTGCGACAGACAGAGCCAGAGATCGCCGCAGGAGAGATACGCCCC
+          |||||  | |||||| |||||||||| ||||| |||  |||||| || ||||| |||||
+     ref ACCGGCATTTTCATCCAGCGACAGACACAGCCACAGAGAGCCGCACGAAAGATATGCCCC
+0300 OLC GCCGTCCCAGCGCGCATGCAGCCGCAGCCCCAGCAGCGAGTGGTAAAACGCCAGGCTTTG
+         ||||||||||||||||||||| ||||||||| ||||||| ||||||||||| |||||| |
+     ref GCCGTCCCAGCGCGCATGCAGTCGCAGCCCCGGCAGCGACTGGTAAAACGCAAGGCTTCG
+0360 OLC CGCCACATCGCGCACGGCGAGCGTCAGATGATTAAGCCCGCTGAGCAT
+         ||||||||||||||| ||||||||||| ||||||||||||||||||||
+     ref CGCCACATCGCGCACCGCGAGCGTCAGGTGATTAAGCCCGCTGAGCAT
+</t>
+  </si>
+  <si>
+    <t>19;22;32;37;40;79;82;106
+147;148;149;151;165
+169;170;172;178;180
+181;182;183;195;199
+202;211;232;239;240
+241;247;248;250;257
+268;274;278;279;286
+289;295;322;332;340
+352;359;376;388</t>
   </si>
 </sst>
 </file>
@@ -4440,7 +4928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4453,7 +4941,7 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="69.7109375" customWidth="1"/>
@@ -5303,53 +5791,53 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="671" customHeight="1">
+    <row r="21" spans="1:14" ht="660" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E21" s="2">
-        <v>70.2</v>
+        <v>96.27</v>
       </c>
       <c r="F21" s="2">
-        <v>98.05</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J21" s="2">
-        <v>43.12</v>
+        <v>97.92</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="660" customHeight="1">
+    <row r="22" spans="1:14" ht="462" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>158</v>
@@ -5361,7 +5849,7 @@
         <v>136</v>
       </c>
       <c r="E22" s="2">
-        <v>96.27</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2">
         <v>100</v>
@@ -5376,208 +5864,247 @@
         <v>161</v>
       </c>
       <c r="J22" s="2">
-        <v>97.92</v>
+        <v>100</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>162</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="231" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="462" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2">
-        <v>100</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="F23" s="2">
         <v>100</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2">
+        <v>96.27</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J23" s="2">
-        <v>100</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="24" spans="1:14" ht="231" customHeight="1">
+    <row r="24" spans="1:14" ht="1749" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="E24" s="2">
-        <v>98.76000000000001</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="F24" s="2">
+        <v>99.11</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="2">
+        <v>97.12</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="660" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="2">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="F25" s="2">
         <v>100</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="2">
-        <v>96.27</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>179</v>
+      <c r="H25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="2">
+        <v>92.34999999999999</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="1749" customHeight="1">
+    <row r="26" spans="1:14" ht="495" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2">
-        <v>88.73999999999999</v>
+        <v>99.77</v>
       </c>
       <c r="F26" s="2">
-        <v>99.11</v>
+        <v>100</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J26" s="2">
-        <v>97.12</v>
+        <v>99.66</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="660" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2">
-        <v>86.81999999999999</v>
+        <v>76.64</v>
       </c>
       <c r="F27" s="2">
-        <v>100</v>
+        <v>96.67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J27" s="2">
-        <v>92.34999999999999</v>
+        <v>57.95</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="495" customHeight="1">
+    <row r="28" spans="1:14" ht="660" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>59</v>
@@ -5586,174 +6113,174 @@
         <v>136</v>
       </c>
       <c r="E28" s="2">
-        <v>99.77</v>
+        <v>98.08</v>
       </c>
       <c r="F28" s="2">
         <v>100</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J28" s="2">
-        <v>99.66</v>
+        <v>97.38</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="660" customHeight="1">
+    <row r="29" spans="1:14" ht="264" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2">
-        <v>76.8</v>
+        <v>97.42</v>
       </c>
       <c r="F29" s="2">
-        <v>96.67</v>
+        <v>100</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J29" s="2">
-        <v>57.95</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="660" customHeight="1">
+    <row r="30" spans="1:14" ht="264" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2">
-        <v>98.08</v>
+        <v>83.23</v>
       </c>
       <c r="F30" s="2">
-        <v>100</v>
+        <v>100.22</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="J30" s="2">
-        <v>97.38</v>
+        <v>61.29</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="495" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="264" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2">
-        <v>97.42</v>
+        <v>99.3</v>
       </c>
       <c r="F31" s="2">
         <v>100</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="J31" s="2">
-        <v>95.06999999999999</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="264" customHeight="1">
+    <row r="32" spans="1:14" ht="627" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>59</v>
@@ -5762,42 +6289,42 @@
         <v>41</v>
       </c>
       <c r="E32" s="2">
-        <v>83.66</v>
+        <v>82.97</v>
       </c>
       <c r="F32" s="2">
-        <v>100.22</v>
+        <v>99.91</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="J32" s="2">
-        <v>61.29</v>
+        <v>95.66</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="495" customHeight="1">
+    <row r="33" spans="1:14" ht="429" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>59</v>
@@ -5806,130 +6333,130 @@
         <v>136</v>
       </c>
       <c r="E33" s="2">
-        <v>99.3</v>
+        <v>99.87</v>
       </c>
       <c r="F33" s="2">
         <v>100</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="J33" s="2">
-        <v>99.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="627" customHeight="1">
+    <row r="34" spans="1:14" ht="231" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2">
-        <v>82.97</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="F34" s="2">
-        <v>99.91</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J34" s="2">
-        <v>95.66</v>
+        <v>90.58</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="297" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="429" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2">
-        <v>99.87</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="F35" s="2">
-        <v>100</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="J35" s="2">
-        <v>100</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="231" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>59</v>
@@ -5938,98 +6465,59 @@
         <v>49</v>
       </c>
       <c r="E36" s="2">
-        <v>88.48999999999999</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="F36" s="2">
-        <v>99.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J36" s="2">
-        <v>90.58</v>
+        <v>90</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="264" customHeight="1">
+    <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="2">
-        <v>71.95</v>
-      </c>
-      <c r="F37" s="2">
-        <v>97.36</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J37" s="2">
-        <v>66.67</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N37" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="231" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="2">
-        <v>96.43000000000001</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="F38" s="2">
-        <v>100</v>
+        <v>100.25</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>278</v>
@@ -6041,7 +6529,7 @@
         <v>280</v>
       </c>
       <c r="J38" s="2">
-        <v>90</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>281</v>
@@ -6056,53 +6544,224 @@
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" ht="264" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2">
+        <v>97.26000000000001</v>
+      </c>
+      <c r="F39" s="2">
+        <v>100</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" s="2">
+        <v>92.47</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" ht="231" customHeight="1">
+    <row r="40" spans="1:14" ht="693" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2">
+        <v>78.59</v>
+      </c>
+      <c r="F40" s="2">
+        <v>98.86</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" s="2">
+        <v>90.64</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="891" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="2">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2">
+        <v>100</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" s="2">
+        <v>100</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="660" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2">
+        <v>73.06999999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>95.7</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" s="2">
+        <v>88.52</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="231" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="2">
-        <v>92.79000000000001</v>
-      </c>
-      <c r="F40" s="2">
-        <v>100.25</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J40" s="2">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>293</v>
+      <c r="E43" s="2">
+        <v>88.48</v>
+      </c>
+      <c r="F43" s="2">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" s="2">
+        <v>73.53</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
